--- a/Paper Rebuttal/Adjustments_12_2019/Data/results_significance_N_last_10.xlsx
+++ b/Paper Rebuttal/Adjustments_12_2019/Data/results_significance_N_last_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lccam\Documents\CU Boulder\Donaldson Lab\Imaging-Paper\Paper Rebuttal\Adjustments_12_2019\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E783AB4E-D6FB-448A-BB90-DCC9DE1E25DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00276614-737C-4A73-9841-280BF84604DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{C1549CA4-3C2B-4B5C-B02B-1C6D806C62B3}"/>
   </bookViews>
@@ -539,10 +539,10 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>0.45454545454545453</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0.45454545454545453</v>
@@ -592,34 +592,34 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.41666666666666669</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0.41666666666666669</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>0.41666666666666669</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.41666666666666669</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0.41666666666666669</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.11904761904761904</v>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0.11904761904761904</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -663,10 +663,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.11904761904761904</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="O5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -680,22 +680,22 @@
         <v>27</v>
       </c>
       <c r="D6">
-        <v>0.18518518518518517</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.18518518518518517</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>0.18518518518518517</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.18518518518518517</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="O6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.38461538461538464</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0.38461538461538464</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -780,34 +780,34 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>9.4339622641509441E-2</v>
+        <v>3.7735849056603772E-2</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>9.4339622641509441E-2</v>
+        <v>5.6603773584905662E-2</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>9.4339622641509441E-2</v>
+        <v>1.8867924528301886E-2</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>9.4339622641509441E-2</v>
+        <v>1.8867924528301886E-2</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>9.4339622641509441E-2</v>
+        <v>3.7735849056603772E-2</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -827,22 +827,22 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.16666666666666666</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0.16666666666666666</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>0.16666666666666666</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0.16666666666666666</v>
@@ -868,10 +868,10 @@
         <v>39</v>
       </c>
       <c r="D10">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0.12820512820512819</v>
@@ -886,22 +886,22 @@
         <v>7</v>
       </c>
       <c r="J10">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.12820512820512819</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10">
-        <v>0.12820512820512819</v>
+        <v>0.10256410256410256</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -915,40 +915,40 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>0.33333333333333331</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.33333333333333331</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0.33333333333333331</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0.33333333333333331</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.33333333333333331</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>0.33333333333333331</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -980,22 +980,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.83333333333333337</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.83333333333333337</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0.83333333333333337</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1009,22 +1009,22 @@
         <v>21</v>
       </c>
       <c r="D13">
-        <v>0.23809523809523808</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.23809523809523808</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>0.23809523809523808</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1033,16 +1033,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.23809523809523808</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0.23809523809523808</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1062,34 +1062,34 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.21739130434782608</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0.21739130434782608</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>0.21739130434782608</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.21739130434782608</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0.21739130434782608</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1103,22 +1103,22 @@
         <v>31</v>
       </c>
       <c r="D15">
-        <v>0.16129032258064516</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.16129032258064516</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>0.16129032258064516</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1127,16 +1127,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.16129032258064516</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>0.16129032258064516</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1150,16 +1150,16 @@
         <v>31</v>
       </c>
       <c r="D16">
-        <v>0.16129032258064516</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.16129032258064516</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>0.22580645161290322</v>
@@ -1168,22 +1168,22 @@
         <v>7</v>
       </c>
       <c r="J16">
-        <v>0.16129032258064516</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.16129032258064516</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0.16129032258064516</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1255,28 +1255,28 @@
         <v>19</v>
       </c>
       <c r="D19">
-        <v>0.26315789473684209</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.26315789473684209</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>0.26315789473684209</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>0.26315789473684209</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>0.31578947368421051</v>
@@ -1302,10 +1302,10 @@
         <v>28</v>
       </c>
       <c r="D20">
-        <v>0.17857142857142858</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <v>0.17857142857142858</v>
@@ -1326,16 +1326,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.17857142857142858</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0.17857142857142858</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="O20">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -1402,10 +1402,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.26315789473684209</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>0.26315789473684209</v>
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.625</v>
+        <v>0.125</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1617,10 +1617,10 @@
         <v>29</v>
       </c>
       <c r="D29">
-        <v>0.17241379310344829</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>0.17241379310344829</v>
@@ -1635,16 +1635,16 @@
         <v>5</v>
       </c>
       <c r="J29">
-        <v>0.17241379310344829</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="K29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>0.17241379310344829</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N29">
         <v>0.17241379310344829</v>
@@ -1722,10 +1722,10 @@
         <v>56</v>
       </c>
       <c r="D32">
-        <v>8.9285714285714288E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>8.9285714285714288E-2</v>
@@ -1740,16 +1740,16 @@
         <v>7</v>
       </c>
       <c r="J32">
-        <v>8.9285714285714288E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="K32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>8.9285714285714288E-2</v>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32">
         <v>0.125</v>
@@ -1839,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1857,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="O35">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -1933,10 +1933,10 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0.27777777777777779</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O37">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -1950,22 +1950,22 @@
         <v>14</v>
       </c>
       <c r="D38">
-        <v>0.35714285714285715</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>0.35714285714285715</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>0.35714285714285715</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>35</v>
       </c>
       <c r="D41">
-        <v>0.14285714285714285</v>
+        <v>8.5714285714285715E-2</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F41">
-        <v>0.14285714285714285</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H41">
         <v>0.2</v>
@@ -2073,22 +2073,22 @@
         <v>7</v>
       </c>
       <c r="J41">
-        <v>0.14285714285714285</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="K41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>0.14285714285714285</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="M41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N41">
-        <v>0.14285714285714285</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="O41">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -2137,34 +2137,34 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.15625</v>
+        <v>3.125E-2</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J43">
-        <v>0.15625</v>
+        <v>3.125E-2</v>
       </c>
       <c r="K43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>0.15625</v>
+        <v>3.125E-2</v>
       </c>
       <c r="M43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N43">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="O43">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -2178,16 +2178,16 @@
         <v>24</v>
       </c>
       <c r="D44">
-        <v>0.20833333333333334</v>
+        <v>0.125</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H44">
         <v>0.20833333333333334</v>
@@ -2196,22 +2196,22 @@
         <v>5</v>
       </c>
       <c r="J44">
-        <v>0.20833333333333334</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="K44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L44">
-        <v>0.20833333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N44">
-        <v>0.20833333333333334</v>
+        <v>0.125</v>
       </c>
       <c r="O44">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -2225,16 +2225,16 @@
         <v>25</v>
       </c>
       <c r="D45">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H45">
         <v>0.2</v>
@@ -2243,16 +2243,16 @@
         <v>5</v>
       </c>
       <c r="J45">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="K45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="M45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N45">
         <v>0.2</v>
@@ -2272,40 +2272,40 @@
         <v>21</v>
       </c>
       <c r="D46">
-        <v>0.23809523809523808</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>0.23809523809523808</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H46">
-        <v>0.23809523809523808</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J46">
-        <v>0.23809523809523808</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="K46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>0.23809523809523808</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="M46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>0.23809523809523808</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="O46">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -2319,40 +2319,40 @@
         <v>36</v>
       </c>
       <c r="D47">
-        <v>0.1388888888888889</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>0.1388888888888889</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>0.1388888888888889</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J47">
-        <v>0.1388888888888889</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="K47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L47">
-        <v>0.1388888888888889</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="M47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>0.1388888888888889</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="O47">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -2366,16 +2366,16 @@
         <v>48</v>
       </c>
       <c r="D48">
-        <v>0.10416666666666667</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F48">
-        <v>0.10416666666666667</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H48">
         <v>0.10416666666666667</v>
@@ -2413,10 +2413,10 @@
         <v>54</v>
       </c>
       <c r="D49">
-        <v>9.2592592592592587E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49">
         <v>0.12962962962962962</v>
@@ -2431,22 +2431,22 @@
         <v>14</v>
       </c>
       <c r="J49">
-        <v>9.2592592592592587E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="K49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L49">
-        <v>9.2592592592592587E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="M49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N49">
-        <v>9.2592592592592587E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="O49">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -2460,16 +2460,16 @@
         <v>41</v>
       </c>
       <c r="D50">
-        <v>0.12195121951219512</v>
+        <v>7.3170731707317069E-2</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F50">
-        <v>0.12195121951219512</v>
+        <v>9.7560975609756101E-2</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H50">
         <v>0.24390243902439024</v>
@@ -2478,10 +2478,10 @@
         <v>10</v>
       </c>
       <c r="J50">
-        <v>0.12195121951219512</v>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="K50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L50">
         <v>0.12195121951219512</v>
@@ -2507,16 +2507,16 @@
         <v>31</v>
       </c>
       <c r="D51">
-        <v>0.16129032258064516</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>0.16129032258064516</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H51">
         <v>0.16129032258064516</v>
@@ -2525,22 +2525,22 @@
         <v>5</v>
       </c>
       <c r="J51">
-        <v>0.16129032258064516</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="K51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L51">
-        <v>0.16129032258064516</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="M51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>0.16129032258064516</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -2554,22 +2554,22 @@
         <v>17</v>
       </c>
       <c r="D52">
-        <v>0.29411764705882354</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>0.29411764705882354</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H52">
-        <v>0.29411764705882354</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2578,16 +2578,16 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>0.29411764705882354</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="M52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N52">
-        <v>0.29411764705882354</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="O52">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -2636,16 +2636,16 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.16129032258064516</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>0.16129032258064516</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2654,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0.16129032258064516</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N54">
         <v>0.16129032258064516</v>

--- a/Paper Rebuttal/Adjustments_12_2019/Data/results_significance_N_last_10.xlsx
+++ b/Paper Rebuttal/Adjustments_12_2019/Data/results_significance_N_last_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lccam\Documents\CU Boulder\Donaldson Lab\Imaging-Paper\Paper Rebuttal\Adjustments_12_2019\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00276614-737C-4A73-9841-280BF84604DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C78912F-706F-424D-BB73-519A44771F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{C1549CA4-3C2B-4B5C-B02B-1C6D806C62B3}"/>
   </bookViews>
@@ -633,10 +633,10 @@
         <v>42</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>2.3809523809523808E-2</v>
@@ -645,10 +645,10 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>7.1428571428571425E-2</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5">
         <v>7.1428571428571425E-2</v>
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="D6">
-        <v>7.407407407407407E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>7.407407407407407E-2</v>
@@ -786,10 +786,10 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>5.6603773584905662E-2</v>
+        <v>7.5471698113207544E-2</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8">
         <v>1.8867924528301886E-2</v>
@@ -804,10 +804,10 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>3.7735849056603772E-2</v>
+        <v>5.6603773584905662E-2</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -845,10 +845,10 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>0.23333333333333334</v>
@@ -880,10 +880,10 @@
         <v>5</v>
       </c>
       <c r="H10">
-        <v>0.17948717948717949</v>
+        <v>0.12820512820512819</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <v>2.564102564102564E-2</v>
@@ -892,10 +892,10 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>7.6923076923076927E-2</v>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>0.10256410256410256</v>
@@ -933,10 +933,10 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.13333333333333333</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0.13333333333333333</v>
@@ -1033,16 +1033,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.7619047619047616E-2</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>9.5238095238095233E-2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1086,10 +1086,10 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>0.17391304347826086</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1100,22 +1100,22 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>3.2258064516129031E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>6.4516129032258063E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15">
-        <v>0.12903225806451613</v>
+        <v>0.125</v>
       </c>
       <c r="I15">
         <v>4</v>
@@ -1127,13 +1127,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.4516129032258063E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M15">
         <v>2</v>
       </c>
       <c r="N15">
-        <v>9.6774193548387094E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="O15">
         <v>3</v>
@@ -1156,10 +1156,10 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>6.4516129032258063E-2</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>0.22580645161290322</v>
@@ -1279,10 +1279,10 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <v>0.31578947368421051</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N19">
         <v>0.31578947368421051</v>
@@ -1302,10 +1302,10 @@
         <v>28</v>
       </c>
       <c r="D20">
-        <v>0.14285714285714285</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>0.17857142857142858</v>
@@ -1314,10 +1314,10 @@
         <v>5</v>
       </c>
       <c r="H20">
-        <v>0.25</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="I20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1396,16 +1396,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>5.2631578947368418E-2</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22">
         <v>0.26315789473684209</v>
@@ -1635,10 +1635,10 @@
         <v>5</v>
       </c>
       <c r="J29">
-        <v>3.4482758620689655E-2</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
         <v>0.10344827586206896</v>
@@ -1722,10 +1722,10 @@
         <v>56</v>
       </c>
       <c r="D32">
-        <v>3.5714285714285712E-2</v>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>8.9285714285714288E-2</v>
@@ -2061,10 +2061,10 @@
         <v>3</v>
       </c>
       <c r="F41">
-        <v>0.11428571428571428</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H41">
         <v>0.2</v>
@@ -2079,16 +2079,16 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>5.7142857142857141E-2</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>0.11428571428571428</v>
+        <v>8.5714285714285715E-2</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -2155,10 +2155,10 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43">
         <v>0.125</v>
@@ -2225,16 +2225,16 @@
         <v>25</v>
       </c>
       <c r="D45">
+        <v>0.08</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
         <v>0.12</v>
       </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
-      <c r="F45">
-        <v>0.16</v>
-      </c>
       <c r="G45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45">
         <v>0.2</v>
@@ -2243,10 +2243,10 @@
         <v>5</v>
       </c>
       <c r="J45">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>0.08</v>
@@ -2255,10 +2255,10 @@
         <v>2</v>
       </c>
       <c r="N45">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="O45">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -2272,10 +2272,10 @@
         <v>21</v>
       </c>
       <c r="D46">
-        <v>4.7619047619047616E-2</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <v>9.5238095238095233E-2</v>
@@ -2390,10 +2390,10 @@
         <v>7</v>
       </c>
       <c r="L48">
-        <v>0.16666666666666666</v>
+        <v>0.1875</v>
       </c>
       <c r="M48">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N48">
         <v>0.29166666666666669</v>
@@ -2413,10 +2413,10 @@
         <v>54</v>
       </c>
       <c r="D49">
-        <v>7.407407407407407E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49">
         <v>0.12962962962962962</v>
@@ -2425,16 +2425,16 @@
         <v>7</v>
       </c>
       <c r="H49">
-        <v>0.25925925925925924</v>
+        <v>0.24074074074074073</v>
       </c>
       <c r="I49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J49">
-        <v>3.7037037037037035E-2</v>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L49">
         <v>3.7037037037037035E-2</v>
@@ -2443,10 +2443,10 @@
         <v>2</v>
       </c>
       <c r="N49">
-        <v>7.407407407407407E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -2460,10 +2460,10 @@
         <v>41</v>
       </c>
       <c r="D50">
-        <v>7.3170731707317069E-2</v>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <v>9.7560975609756101E-2</v>
@@ -2484,16 +2484,16 @@
         <v>2</v>
       </c>
       <c r="L50">
-        <v>0.12195121951219512</v>
+        <v>9.7560975609756101E-2</v>
       </c>
       <c r="M50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N50">
-        <v>0.1951219512195122</v>
+        <v>0.17073170731707318</v>
       </c>
       <c r="O50">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -2513,10 +2513,10 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>9.6774193548387094E-2</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H51">
         <v>0.16129032258064516</v>
@@ -2531,10 +2531,10 @@
         <v>2</v>
       </c>
       <c r="L51">
-        <v>9.6774193548387094E-2</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="M51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N51">
         <v>0.12903225806451613</v>
@@ -2584,10 +2584,10 @@
         <v>1</v>
       </c>
       <c r="N52">
-        <v>5.8823529411764705E-2</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -2642,10 +2642,10 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>9.6774193548387094E-2</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>2</v>
       </c>
       <c r="N54">
-        <v>0.16129032258064516</v>
+        <v>0.19354838709677419</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
